--- a/Documentación/Plantilla product backlog Reppost_6857_7237 V2.xlsx
+++ b/Documentación/Plantilla product backlog Reppost_6857_7237 V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CARRERA\8. Octavo semestre\Aplicaciones Informáticas II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3C51F0-365E-4FE0-BB22-A13DF343B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B00929-C8FE-420D-B165-02E2A216B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Columna</t>
   </si>
@@ -234,9 +234,6 @@
     <t>20 horas</t>
   </si>
   <si>
-    <t>26 horas</t>
-  </si>
-  <si>
     <t>14 horas</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Como un usuario, necesito generar imágenes a partir de un prompt, con la finalidad de crear contenido visual único</t>
+  </si>
+  <si>
+    <t>46 horas</t>
   </si>
 </sst>
 </file>
@@ -657,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -683,55 +683,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21.1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5">
         <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>24</v>
@@ -740,46 +783,46 @@
     </row>
     <row r="6" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>24</v>
@@ -791,7 +834,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
@@ -803,7 +846,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>24</v>
@@ -827,7 +870,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>24</v>
@@ -836,22 +879,22 @@
     </row>
     <row r="10" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>24</v>
@@ -860,46 +903,46 @@
     </row>
     <row r="11" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>48</v>
@@ -908,22 +951,22 @@
     </row>
     <row r="13" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>48</v>
@@ -932,99 +975,51 @@
     </row>
     <row r="14" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G15" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="5">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
